--- a/Data/Processing/2024-02-02/BDL.xlsx
+++ b/Data/Processing/2024-02-02/BDL.xlsx
@@ -716,7 +716,7 @@
         <v>900.4299999999999</v>
       </c>
       <c r="C4">
-        <v>905.33</v>
+        <v>905.3200000000001</v>
       </c>
       <c r="D4">
         <v>851.99</v>
